--- a/TRAVELADVISOR.xlsx
+++ b/TRAVELADVISOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB 102 PC31\Documents\221210008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOWNLOADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900B1BB-9C94-4700-B19D-BD7540E49FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115AF0E0-EFE8-4050-A746-C72BE4C767C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3E6C03B-C14A-42BB-BB89-90EDFBDF1D82}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,10 +91,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,13 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +483,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +543,8 @@
         <v>3</v>
       </c>
       <c r="I5" s="2"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -544,8 +553,8 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -569,19 +578,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100877352342540EF42B170C42AE114BB62" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f3e425b7fbb5c962012dd891b1a06d8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b294af5b-6762-4e78-884b-99e7bca289ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e0c67bb37e0ffd9bf2a523e52fef7f5" ns3:_="">
     <xsd:import namespace="b294af5b-6762-4e78-884b-99e7bca289ef"/>
@@ -731,6 +732,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -738,14 +748,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE3D8E29-3790-4E15-8882-F1859A67BE81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9D1912-A146-4DE5-A648-43C8C9207B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -763,6 +765,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE3D8E29-3790-4E15-8882-F1859A67BE81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F9CD3E-E115-4DDD-8FE5-47373123E37B}">
   <ds:schemaRefs>
